--- a/data/dashboard-handup.xlsx
+++ b/data/dashboard-handup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\NSS\projects\low-income-and-elderly-assist-red-team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5774CE-A145-4883-AF8E-D3511034D948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9741C3-3F36-4441-9A68-6B1003D11188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{93C07A0B-228D-41D2-BEE1-1FFEDA5342C0}"/>
   </bookViews>
@@ -18,12 +18,14 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">'[2]#3'!$F$3</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">'[2]#3'!$F$4:$F$24</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">'[2]#3'!$G$3</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">'[2]#3'!$G$4:$G$24</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">'[1]#3'!$F$3</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">'[1]#3'!$F$4:$F$24</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">'[1]#3'!$G$3</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">'[1]#3'!$G$4:$G$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,90 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Hand Up America - Insights for Low Income and Elderly Assistance Grants</t>
   </si>
   <si>
-    <t>ULTRA-RICH VS ULTRA POOR</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>For US: 2,140,950 people</t>
-  </si>
-  <si>
-    <t>For US: 424,870 people</t>
-  </si>
-  <si>
     <t>Data Source - 2016 IRS individual Tax Returns</t>
-  </si>
-  <si>
-    <t>AGI &lt;$1</t>
-  </si>
-  <si>
-    <t>AGI &gt;$1M</t>
   </si>
   <si>
     <t>presented 9/24/2020</t>
@@ -136,32 +60,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,38 +90,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -227,50 +106,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,7 +193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Analysis!$F$1</c:f>
+              <c:f>[2]Analysis!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -364,7 +214,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Analysis!$C$2:$C$11</c:f>
+              <c:f>[2]Analysis!$C$2:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -402,7 +252,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysis!$F$2:$F$11</c:f>
+              <c:f>[2]Analysis!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -676,7 +526,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Analysis!$H$25:$H$76</c:f>
+              <c:f>[2]Analysis!$H$25:$H$76</c:f>
               <c:strCache>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
@@ -840,7 +690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysis!$K$25:$K$76</c:f>
+              <c:f>[2]Analysis!$K$25:$K$76</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1024,7 +874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Analysis!$H$25:$H$76</c:f>
+              <c:f>[2]Analysis!$H$25:$H$76</c:f>
               <c:strCache>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
@@ -1188,7 +1038,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysis!$L$25:$L$76</c:f>
+              <c:f>[2]Analysis!$L$25:$L$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -1390,7 +1240,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Analysis!$H$25:$H$76</c:f>
+              <c:f>[2]Analysis!$H$25:$H$76</c:f>
               <c:strCache>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
@@ -1554,7 +1404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Analysis!$M$25:$M$76</c:f>
+              <c:f>[2]Analysis!$M$25:$M$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -2071,7 +1921,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]#2'!$F$1</c:f>
+              <c:f>'[2]#2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2092,7 +1942,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]#2'!$A$2:$A$54</c:f>
+              <c:f>'[2]#2'!$A$2:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
@@ -2256,7 +2106,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]#2'!$F$2:$F$54</c:f>
+              <c:f>'[2]#2'!$F$2:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2430,7 +2280,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]#2'!$G$1</c:f>
+              <c:f>'[2]#2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2451,7 +2301,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]#2'!$A$2:$A$54</c:f>
+              <c:f>'[2]#2'!$A$2:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
@@ -2615,7 +2465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]#2'!$G$2:$G$54</c:f>
+              <c:f>'[2]#2'!$G$2:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2984,6 +2834,665 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Ultra-Poor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> vs Ultra Rich</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[4]#4'!$U$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>State</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[4]#4'!$U$29:$U$39</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[4]#4'!$U$29:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6318-4670-AD9D-417EF3F372A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[4]#4'!$V$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% AGI &lt;$1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>100.00%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>200.00%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>300.00%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400.00%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>500.00%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>600.00%</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>700.00%</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>800.00%</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>900.00%</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1000.00%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[4]#4'!$V$29:$V$39</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[4]#4'!$V$29:$V$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.163058240792522E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9488473959686701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.909250486931012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8681987157823588E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7952494936475789E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7686459351788347E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7486846337712199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7259990307089041E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6711191126081652E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6604595340319966E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6318-4670-AD9D-417EF3F372A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[4]#4'!$W$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% AGI &gt;$1M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>100.00%</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>200.00%</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>300.00%</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>400.00%</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>500.00%</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>600.00%</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>700.00%</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>800.00%</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>900.00%</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>1000.00%</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[4]#4'!$W$29:$W$39</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[4]#4'!$W$29:$W$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.2649640861931364E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0342817164179101E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0649622865223199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7390863182343382E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3492539900471189E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0012033356644217E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1442159050112375E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0380501450239031E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9394698818109698E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.891733643395635E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6318-4670-AD9D-417EF3F372A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1048737040"/>
+        <c:axId val="804133856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1048737040"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>States</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804133856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="804133856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048737040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -12711,6 +13220,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -14748,6 +15297,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14791,13 +15845,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>528635</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -14867,15 +15921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>40957</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>21906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -14911,8 +15965,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="40957" y="2786063"/>
-              <a:ext cx="3045144" cy="1900237"/>
+              <a:off x="21906" y="2266951"/>
+              <a:ext cx="3121343" cy="1909762"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14942,10 +15996,263 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70230EAD-65D8-4F4F-B56E-CC7205A8F4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="data"/>
+      <sheetName val="#1"/>
+      <sheetName val="#2"/>
+      <sheetName val="#3"/>
+      <sheetName val="#4"/>
+      <sheetName val="analysis"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="27">
+          <cell r="M27">
+            <v>115159283</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="F1" t="str">
+            <v>% Active Income</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>Tax Liabilities - Top 5 vs Bottom 5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4" t="str">
+            <v>DISTRICT OF COLUMBIA</v>
+          </cell>
+          <cell r="G4">
+            <v>524.34912905038402</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>NEW HAMPSHIRE</v>
+          </cell>
+          <cell r="G5">
+            <v>456.67098445595855</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>MASSACHUSETTS</v>
+          </cell>
+          <cell r="G6">
+            <v>453.92907363412542</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>VERMONT</v>
+          </cell>
+          <cell r="G7">
+            <v>446.15874025767459</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8" t="str">
+            <v>RHODE ISLAND</v>
+          </cell>
+          <cell r="G8">
+            <v>445.77633620081792</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>CONNECTICUT</v>
+          </cell>
+          <cell r="G9">
+            <v>436.07611396414887</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10" t="str">
+            <v>MAINE</v>
+          </cell>
+          <cell r="G10">
+            <v>435.9745069330807</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11" t="str">
+            <v>NORTH DAKOTA</v>
+          </cell>
+          <cell r="G11">
+            <v>432.74810406494413</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12" t="str">
+            <v>ALASKA</v>
+          </cell>
+          <cell r="G12">
+            <v>429.54854272584316</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13" t="str">
+            <v>NEW YORK</v>
+          </cell>
+          <cell r="G13">
+            <v>424.83249978306429</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14" t="str">
+            <v>AVERAGE</v>
+          </cell>
+          <cell r="G14">
+            <v>395.66558240005645</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15" t="str">
+            <v>TEXAS</v>
+          </cell>
+          <cell r="G15">
+            <v>359.80522907671076</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16" t="str">
+            <v>GEORGIA</v>
+          </cell>
+          <cell r="G16">
+            <v>359.42659383543645</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17" t="str">
+            <v>LOUISIANA</v>
+          </cell>
+          <cell r="G17">
+            <v>358.69839208646835</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v>OKLAHOMA</v>
+          </cell>
+          <cell r="G18">
+            <v>357.76170776004568</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19" t="str">
+            <v>ALABAMA</v>
+          </cell>
+          <cell r="G19">
+            <v>356.40056683986774</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20" t="str">
+            <v>NEW MEXICO</v>
+          </cell>
+          <cell r="G20">
+            <v>356.14896837319742</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21" t="str">
+            <v>ARKANSAS</v>
+          </cell>
+          <cell r="G21">
+            <v>350.91898568684303</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22" t="str">
+            <v>IDAHO</v>
+          </cell>
+          <cell r="G22">
+            <v>350.79179563581255</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23" t="str">
+            <v>MISSISSIPPI</v>
+          </cell>
+          <cell r="G23">
+            <v>337.0416365516773</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24" t="str">
+            <v>UTAH</v>
+          </cell>
+          <cell r="G24">
+            <v>333.11302735023804</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="T1" t="str">
+            <v>State</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16361,7 +17668,20 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="#4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16370,207 +17690,109 @@
       <sheetName val="#2"/>
       <sheetName val="#3"/>
       <sheetName val="#4"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="27">
-          <cell r="M27">
-            <v>115159283</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="28">
+          <cell r="U28" t="str">
+            <v>State</v>
+          </cell>
+          <cell r="V28" t="str">
+            <v>% AGI &lt;$1</v>
+          </cell>
+          <cell r="W28" t="str">
+            <v>% AGI &gt;$1M</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>% Active Income</v>
+        <row r="29">
+          <cell r="V29">
+            <v>2.163058240792522E-2</v>
+          </cell>
+          <cell r="W29">
+            <v>6.2649640861931364E-3</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>Tax Liabilities - Top 5 vs Bottom 5</v>
+        <row r="30">
+          <cell r="V30">
+            <v>1.9488473959686701E-2</v>
+          </cell>
+          <cell r="W30">
+            <v>6.0342817164179101E-3</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>DISTRICT OF COLUMBIA</v>
-          </cell>
-          <cell r="G4">
-            <v>524.34912905038402</v>
+        <row r="31">
+          <cell r="V31">
+            <v>1.909250486931012E-2</v>
+          </cell>
+          <cell r="W31">
+            <v>5.0649622865223199E-3</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>NEW HAMPSHIRE</v>
-          </cell>
-          <cell r="G5">
-            <v>456.67098445595855</v>
+        <row r="32">
+          <cell r="V32">
+            <v>1.8681987157823588E-2</v>
+          </cell>
+          <cell r="W32">
+            <v>4.7390863182343382E-3</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>MASSACHUSETTS</v>
-          </cell>
-          <cell r="G6">
-            <v>453.92907363412542</v>
+        <row r="33">
+          <cell r="V33">
+            <v>1.7952494936475789E-2</v>
+          </cell>
+          <cell r="W33">
+            <v>4.3492539900471189E-3</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>VERMONT</v>
-          </cell>
-          <cell r="G7">
-            <v>446.15874025767459</v>
+        <row r="34">
+          <cell r="V34">
+            <v>1.7686459351788347E-2</v>
+          </cell>
+          <cell r="W34">
+            <v>4.0012033356644217E-3</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="F8" t="str">
-            <v>RHODE ISLAND</v>
-          </cell>
-          <cell r="G8">
-            <v>445.77633620081792</v>
+        <row r="35">
+          <cell r="V35">
+            <v>1.7486846337712199E-2</v>
+          </cell>
+          <cell r="W35">
+            <v>3.1442159050112375E-3</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="F9" t="str">
-            <v>CONNECTICUT</v>
-          </cell>
-          <cell r="G9">
-            <v>436.07611396414887</v>
+        <row r="36">
+          <cell r="V36">
+            <v>1.7259990307089041E-2</v>
+          </cell>
+          <cell r="W36">
+            <v>3.0380501450239031E-3</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>MAINE</v>
-          </cell>
-          <cell r="G10">
-            <v>435.9745069330807</v>
+        <row r="37">
+          <cell r="V37">
+            <v>1.6711191126081652E-2</v>
+          </cell>
+          <cell r="W37">
+            <v>2.9394698818109698E-3</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="F11" t="str">
-            <v>NORTH DAKOTA</v>
-          </cell>
-          <cell r="G11">
-            <v>432.74810406494413</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12" t="str">
-            <v>ALASKA</v>
-          </cell>
-          <cell r="G12">
-            <v>429.54854272584316</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13" t="str">
-            <v>NEW YORK</v>
-          </cell>
-          <cell r="G13">
-            <v>424.83249978306429</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14" t="str">
-            <v>AVERAGE</v>
-          </cell>
-          <cell r="G14">
-            <v>395.66558240005645</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15" t="str">
-            <v>TEXAS</v>
-          </cell>
-          <cell r="G15">
-            <v>359.80522907671076</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16" t="str">
-            <v>GEORGIA</v>
-          </cell>
-          <cell r="G16">
-            <v>359.42659383543645</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17" t="str">
-            <v>LOUISIANA</v>
-          </cell>
-          <cell r="G17">
-            <v>358.69839208646835</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18" t="str">
-            <v>OKLAHOMA</v>
-          </cell>
-          <cell r="G18">
-            <v>357.76170776004568</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19" t="str">
-            <v>ALABAMA</v>
-          </cell>
-          <cell r="G19">
-            <v>356.40056683986774</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20" t="str">
-            <v>NEW MEXICO</v>
-          </cell>
-          <cell r="G20">
-            <v>356.14896837319742</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21" t="str">
-            <v>ARKANSAS</v>
-          </cell>
-          <cell r="G21">
-            <v>350.91898568684303</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22" t="str">
-            <v>IDAHO</v>
-          </cell>
-          <cell r="G22">
-            <v>350.79179563581255</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23" t="str">
-            <v>MISSISSIPPI</v>
-          </cell>
-          <cell r="G23">
-            <v>337.0416365516773</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24" t="str">
-            <v>UTAH</v>
-          </cell>
-          <cell r="G24">
-            <v>333.11302735023804</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="T1" t="str">
-            <v>State</v>
+        <row r="38">
+          <cell r="V38">
+            <v>1.6604595340319966E-2</v>
+          </cell>
+          <cell r="W38">
+            <v>2.891733643395635E-3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17186,12 +18408,327 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624FEFBB-42AF-41A4-813B-B5D273D0950E}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17205,233 +18742,40 @@
       <c r="P1" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="G13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6">
-        <v>2.163058240792522E-2</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6">
-        <v>6.2649640861931364E-3</v>
-      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="G16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>1.9488473959686701E-2</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6">
-        <v>6.0342817164179101E-3</v>
-      </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6">
-        <v>1.909250486931012E-2</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6">
-        <v>5.0649622865223199E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6">
-        <v>1.8681987157823588E-2</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6">
-        <v>4.7390863182343382E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6">
-        <v>1.7952494936475789E-2</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6">
-        <v>4.3492539900471189E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6">
-        <v>1.7686459351788347E-2</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6">
-        <v>4.0012033356644217E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>1.7486846337712199E-2</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6">
-        <v>3.1442159050112375E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6">
-        <v>1.7259990307089041E-2</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6">
-        <v>3.0380501450239031E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6">
-        <v>1.6711191126081652E-2</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8">
-        <v>2.9394698818109698E-3</v>
-      </c>
-    </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6">
-        <v>1.6604595340319966E-2</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6">
-        <v>2.891733643395635E-3</v>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6">
-        <v>1.6243683012161936E-2</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8">
-        <v>2.8583095140873828E-3</v>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:L26"/>
+    <mergeCell ref="G13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
